--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6B664A-7A45-4870-81D6-FFD529E9D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5C18D-BB4B-465E-AD0F-A4729A127325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="300" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,7 +1608,7 @@
         <v>84</v>
       </c>
       <c r="C91">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1619,7 +1619,7 @@
         <v>85</v>
       </c>
       <c r="C92">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombo\Documents\Github Repositories\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5C18D-BB4B-465E-AD0F-A4729A127325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CDAB74-8048-4BDC-9677-F0D400B8E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="300" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="139">
   <si>
     <t>dt</t>
   </si>
@@ -438,6 +438,21 @@
   </si>
   <si>
     <t>verboseOutput</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>How many boxes the map should be divided into</t>
+  </si>
+  <si>
+    <t>mapDivResolution</t>
+  </si>
+  <si>
+    <t>How often to check which divisions have been explored</t>
+  </si>
+  <si>
+    <t>mapDivFrameSkip</t>
   </si>
 </sst>
 </file>
@@ -768,24 +783,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -796,7 +811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -807,7 +822,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -818,7 +833,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -829,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -840,7 +855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -851,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -859,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -867,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -875,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -883,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -903,12 +918,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -919,7 +934,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -930,7 +945,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -941,12 +956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -957,7 +972,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -968,7 +983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -979,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -990,17 +1005,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1043,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1050,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1077,12 +1092,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1099,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1113,7 +1128,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1126,12 +1141,12 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -1165,7 +1180,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1178,7 +1193,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -1186,7 +1201,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -1195,7 +1210,7 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -1204,12 +1219,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -1228,15 +1243,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -1247,12 +1262,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1278,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1274,7 +1289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1333,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1329,7 +1344,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -1345,7 +1360,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -1353,7 +1368,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1364,12 +1379,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -1377,7 +1392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -1385,7 +1400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -1393,7 +1408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -1415,7 +1430,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -1474,7 +1489,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -1482,12 +1497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -1496,7 +1511,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -1504,7 +1519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -1512,7 +1527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -1534,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1589,7 +1604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -1611,7 +1626,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -1622,12 +1637,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -1635,12 +1650,39 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>93</v>
       </c>
       <c r="C96" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1657,18 +1699,18 @@
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1679,7 +1721,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1732,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1734,7 +1776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -1742,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -1750,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -1758,7 +1800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -1766,17 +1808,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1787,7 +1829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +1840,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1809,12 +1851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1867,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1878,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1847,7 +1889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1858,17 +1900,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1879,7 +1921,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1887,7 +1929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1898,7 +1940,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1909,7 +1951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -1917,7 +1959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1925,12 +1967,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1939,7 +1981,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1953,7 +1995,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1966,12 +2008,12 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -1979,7 +2021,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -1990,7 +2032,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -2003,7 +2045,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2011,7 +2053,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -2020,7 +2062,7 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -2029,12 +2071,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -2042,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -2053,15 +2095,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -2072,12 +2114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2088,7 +2130,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2099,7 +2141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2110,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2121,7 +2163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2132,7 +2174,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2143,7 +2185,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2154,7 +2196,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -2162,7 +2204,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -2170,7 +2212,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -2178,7 +2220,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2189,12 +2231,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -2202,7 +2244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -2210,7 +2252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2229,7 +2271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -2240,7 +2282,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -2248,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -2256,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -2264,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -2272,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -2280,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -2291,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -2299,7 +2341,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -2307,12 +2349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -2321,7 +2363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -2329,7 +2371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -2337,7 +2379,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2348,7 +2390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2370,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2381,7 +2423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2434,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2403,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2414,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2425,7 +2467,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2436,7 +2478,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2447,12 +2489,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -2460,7 +2502,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -2482,18 +2524,18 @@
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2510,7 +2552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2521,7 +2563,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2574,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2543,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>95</v>
       </c>
@@ -2579,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -2593,7 +2635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>101</v>
       </c>
@@ -2601,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -2609,12 +2651,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2628,7 +2670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2639,7 +2681,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2650,12 +2692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2669,7 +2711,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2683,7 +2725,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2694,7 +2736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2705,17 +2747,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -2747,7 +2789,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>105</v>
       </c>
@@ -2770,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2802,7 +2844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2834,7 +2876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>112</v>
       </c>
@@ -2857,7 +2899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -2874,12 +2916,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -2899,7 +2941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2924,7 +2966,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2956,12 +2998,12 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -2984,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -3004,7 +3046,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -3036,7 +3078,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -3049,7 +3091,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>36</v>
@@ -3058,7 +3100,7 @@
         <v>9.9999999999999992E-25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>121</v>
@@ -3070,12 +3112,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -3083,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -3094,15 +3136,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
@@ -3113,12 +3155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3177,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3155,7 +3197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3166,7 +3208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3177,7 +3219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3193,7 +3235,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3209,7 +3251,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -3229,7 +3271,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -3237,7 +3279,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>54</v>
       </c>
@@ -3245,7 +3287,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>55</v>
       </c>
@@ -3254,7 +3296,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3271,12 +3313,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>57</v>
       </c>
@@ -3284,7 +3326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>59</v>
       </c>
@@ -3292,7 +3334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>61</v>
       </c>
@@ -3300,7 +3342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3311,7 +3353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>66</v>
       </c>
@@ -3327,7 +3369,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>67</v>
       </c>
@@ -3335,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>68</v>
       </c>
@@ -3343,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>69</v>
       </c>
@@ -3351,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -3359,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -3367,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3378,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>123</v>
       </c>
@@ -3386,7 +3428,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>104</v>
       </c>
@@ -3394,12 +3436,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>73</v>
       </c>
@@ -3407,7 +3449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>75</v>
       </c>
@@ -3415,7 +3457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3426,7 +3468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3437,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3448,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3501,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3470,7 +3512,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3484,7 +3526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3495,7 +3537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -3506,7 +3548,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3520,7 +3562,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3534,12 +3576,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -3547,7 +3589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>93</v>
       </c>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombo\Documents\Github Repositories\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REU22\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CDAB74-8048-4BDC-9677-F0D400B8E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D64CDAC-9C01-4387-91CE-BA3D1943D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -785,22 +785,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -811,7 +812,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -822,7 +823,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +834,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -844,7 +845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -855,7 +856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -866,7 +867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -874,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -882,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -890,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -898,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -918,12 +919,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -934,7 +935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -945,7 +946,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -956,12 +957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -972,7 +973,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -983,7 +984,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -994,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1005,53 +1006,51 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="2">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H27" s="2">
         <v>100000</v>
       </c>
-      <c r="I27" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>105</v>
       </c>
       <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1076,15 +1075,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>112</v>
       </c>
       <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E31">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1092,12 +1097,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1114,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1128,7 +1133,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1141,12 +1146,12 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -1169,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1193,7 +1198,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -1201,7 +1206,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -1210,7 +1215,7 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -1219,12 +1224,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -1243,15 +1248,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -1262,12 +1267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1379,12 +1384,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -1392,7 +1397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -1430,7 +1435,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -1481,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -1497,12 +1502,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -1511,7 +1516,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -1593,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -1637,12 +1642,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -1658,12 +1663,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -1699,18 +1704,18 @@
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -1808,17 +1813,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1851,12 +1856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +1883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1900,17 +1905,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1921,7 +1926,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1967,12 +1972,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1981,7 +1986,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1995,7 +2000,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2008,12 +2013,12 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -2021,7 +2026,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -2045,7 +2050,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,7 +2058,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -2062,7 +2067,7 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -2071,12 +2076,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -2084,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -2095,15 +2100,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -2114,12 +2119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2141,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -2204,7 +2209,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2231,12 +2236,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -2252,7 +2257,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2271,7 +2276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2287,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -2349,12 +2354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -2363,7 +2368,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2423,7 +2428,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2467,7 +2472,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2489,12 +2494,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -2524,18 +2529,18 @@
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2552,7 +2557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2563,7 +2568,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>95</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>101</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -2651,12 +2656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2670,7 +2675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2692,12 +2697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2711,7 +2716,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2747,17 +2752,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>105</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2844,7 +2849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2876,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>112</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -2916,12 +2921,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2998,12 +3003,12 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -3046,7 +3051,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -3091,7 +3096,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>36</v>
@@ -3100,7 +3105,7 @@
         <v>9.9999999999999992E-25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>121</v>
@@ -3112,12 +3117,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -3136,15 +3141,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
@@ -3155,12 +3160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3197,7 +3202,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3208,7 +3213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3235,7 +3240,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -3271,7 +3276,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -3279,7 +3284,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>54</v>
       </c>
@@ -3287,7 +3292,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>55</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3313,12 +3318,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>57</v>
       </c>
@@ -3326,7 +3331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>59</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>61</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3353,7 +3358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>66</v>
       </c>
@@ -3369,7 +3374,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>67</v>
       </c>
@@ -3377,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>68</v>
       </c>
@@ -3385,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>69</v>
       </c>
@@ -3393,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3420,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>123</v>
       </c>
@@ -3428,7 +3433,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>104</v>
       </c>
@@ -3436,12 +3441,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>73</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>75</v>
       </c>
@@ -3457,7 +3462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3512,7 +3517,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3576,12 +3581,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -3589,7 +3594,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>93</v>
       </c>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REU22\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D64CDAC-9C01-4387-91CE-BA3D1943D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086BDE5-7ABC-43F9-9753-D9C9D6A3A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C29" sqref="C29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,10 +1058,16 @@
         <v>109</v>
       </c>
       <c r="C29">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>-0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086BDE5-7ABC-43F9-9753-D9C9D6A3A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F74F9-2A6C-4F32-9C08-4F5028A837D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1020" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -785,15 +785,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.21875" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1041,13 +1040,7 @@
         <v>105</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
-      </c>
-      <c r="D28">
         <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1058,16 +1051,28 @@
         <v>109</v>
       </c>
       <c r="C29">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="E29">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1.25</v>
+      </c>
+      <c r="I29">
+        <v>1.5</v>
+      </c>
+      <c r="J29">
+        <v>1.75</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1086,13 +1091,7 @@
         <v>112</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1100,15 +1099,18 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1135,11 +1137,8 @@
       <c r="C35">
         <v>200</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1149,15 +1148,13 @@
       <c r="C36">
         <v>-2</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -1173,14 +1170,10 @@
       <c r="F38" s="2">
         <v>0.01</v>
       </c>
-      <c r="G38" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -1191,7 +1184,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1201,18 +1194,13 @@
       <c r="C40">
         <v>-2</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -1221,7 +1209,7 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -1230,12 +1218,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -1243,8 +1231,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46" t="s">
@@ -1254,16 +1242,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>99</v>
       </c>
       <c r="B49" t="s">
@@ -1273,12 +1258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1274,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1297,10 +1282,19 @@
         <v>44</v>
       </c>
       <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1333,7 +1327,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1338,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1355,7 +1349,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -1363,7 +1357,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -1379,7 +1373,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F74F9-2A6C-4F32-9C08-4F5028A837D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE54A2F9-C802-4675-BC72-6B2251BCE6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1020" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1020" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,15 +1020,18 @@
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="2">
         <v>10000</v>
       </c>
       <c r="F27" s="2">
+        <v>30000</v>
+      </c>
+      <c r="G27" s="2">
         <v>100000</v>
       </c>
       <c r="I27" s="2"/>
@@ -1051,28 +1054,7 @@
         <v>109</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.25</v>
-      </c>
-      <c r="E29">
         <v>0.5</v>
-      </c>
-      <c r="F29">
-        <v>0.75</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1.25</v>
-      </c>
-      <c r="I29">
-        <v>1.5</v>
-      </c>
-      <c r="J29">
-        <v>1.75</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1099,10 +1081,10 @@
         <v>113</v>
       </c>
       <c r="C32">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,13 +1100,16 @@
         <v>0.01</v>
       </c>
       <c r="D34" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E34" s="2">
         <v>0.1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="2">
         <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1135,7 +1120,16 @@
         <v>100</v>
       </c>
       <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
         <v>200</v>
+      </c>
+      <c r="F35">
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1167,9 +1161,7 @@
       <c r="E38" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F38" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
@@ -1182,6 +1174,9 @@
       </c>
       <c r="C39">
         <v>200</v>
+      </c>
+      <c r="D39">
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1247,7 +1242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -1258,12 +1253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1269,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1282,19 +1277,10 @@
         <v>44</v>
       </c>
       <c r="C53">
-        <v>5</v>
-      </c>
-      <c r="D53">
         <v>10</v>
       </c>
-      <c r="E53">
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1305,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1316,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1327,7 +1313,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1338,7 +1324,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1349,7 +1335,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -1357,7 +1343,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -1365,7 +1351,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -1373,7 +1359,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE54A2F9-C802-4675-BC72-6B2251BCE6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A91D7-134F-4345-B6C3-8F865AAE6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1020" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +863,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1120,16 +1123,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35">
         <v>200</v>
-      </c>
-      <c r="F35">
-        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,11 +1146,11 @@
       <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="C38" s="2">
+        <v>-1E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
         <v>1E-3</v>
@@ -1174,9 +1168,6 @@
       </c>
       <c r="C39">
         <v>200</v>
-      </c>
-      <c r="D39">
-        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1202,6 +1193,12 @@
       </c>
       <c r="C42">
         <v>9.9999999999999991E-22</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1E-22</v>
+      </c>
+      <c r="E42" s="2">
+        <v>9.9999999999999996E-24</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombo\Documents\Github Repositories\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A91D7-134F-4345-B6C3-8F865AAE6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3924011D-4DC6-45C1-8720-8F39390C7ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="140">
   <si>
     <t>dt</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>mapDivFrameSkip</t>
+  </si>
+  <si>
+    <t>agentControl_Baseline</t>
   </si>
 </sst>
 </file>
@@ -785,22 +788,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -811,7 +814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -822,7 +825,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -844,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -855,7 +858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -869,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -885,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -893,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -921,12 +924,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -937,7 +940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -948,7 +951,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -959,12 +962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -975,7 +978,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -986,7 +989,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1008,17 +1011,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1041,7 +1044,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1090,12 +1093,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1137,12 +1140,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -1159,7 +1162,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1181,12 +1184,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -1201,7 +1204,7 @@
         <v>9.9999999999999996E-24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -1210,12 +1213,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1234,12 +1237,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -1250,12 +1253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1367,12 +1370,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -1418,7 +1421,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -1485,12 +1488,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -1499,7 +1502,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -1625,20 +1628,20 @@
         <v>600</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -1646,12 +1649,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -1687,18 +1690,18 @@
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -1796,17 +1799,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1839,12 +1842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1888,17 +1891,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1909,7 +1912,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1955,12 +1958,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1969,7 +1972,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1983,7 +1986,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1996,12 +1999,12 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -2033,7 +2036,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2041,7 +2044,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -2050,7 +2053,7 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -2059,12 +2062,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -2083,15 +2086,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -2102,12 +2105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2219,12 +2222,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -2270,7 +2273,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -2337,12 +2340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -2351,7 +2354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2477,12 +2480,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -2512,18 +2515,18 @@
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>95</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>101</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -2639,12 +2642,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2680,12 +2683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2735,17 +2738,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>105</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>112</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -2904,12 +2907,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2954,7 +2957,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2986,12 +2989,12 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -3079,7 +3082,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>36</v>
@@ -3088,7 +3091,7 @@
         <v>9.9999999999999992E-25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>121</v>
@@ -3100,12 +3103,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -3124,15 +3127,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
@@ -3143,12 +3146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>54</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>55</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3301,12 +3304,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>57</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>59</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>61</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>66</v>
       </c>
@@ -3357,7 +3360,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>67</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>68</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>69</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>123</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>104</v>
       </c>
@@ -3424,12 +3427,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>73</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>75</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3564,12 +3567,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>93</v>
       </c>

--- a/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
+++ b/matlab/REU_2022/Topic_3_Soaring/Sim_Draft_1/Code_of_Laws/UnifiedLawIteration_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hombo\Documents\Github Repositories\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxlg\Dropbox (ASU)\PC\Documents\GitHub\REU_MatlabSim\REU_MatlabSim\matlab\REU_2022\Topic_3_Soaring\Sim_Draft_1\Code_of_Laws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3924011D-4DC6-45C1-8720-8F39390C7ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C2BD5-B08D-4971-85F2-DAE5AABC9533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8748" yWindow="852" windowWidth="14292" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Iteration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="139">
   <si>
     <t>dt</t>
   </si>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>mapDivFrameSkip</t>
-  </si>
-  <si>
-    <t>agentControl_Baseline</t>
   </si>
 </sst>
 </file>
@@ -788,22 +785,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -814,7 +811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -825,7 +822,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -836,7 +833,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -847,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -855,10 +852,13 @@
         <v>6</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -866,13 +866,19 @@
         <v>9</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -888,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -896,7 +902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>102</v>
       </c>
@@ -924,12 +930,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -940,7 +946,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -951,7 +957,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -962,12 +968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -978,7 +984,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -989,7 +995,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1011,17 +1017,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1044,7 +1050,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1093,12 +1099,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1140,12 +1146,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -1162,7 +1168,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1184,12 +1190,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -1204,7 +1210,7 @@
         <v>9.9999999999999996E-24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -1213,12 +1219,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1237,12 +1243,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -1253,12 +1259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1370,12 +1376,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -1421,7 +1427,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -1488,12 +1494,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -1502,7 +1508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -1628,20 +1634,20 @@
         <v>600</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -1649,12 +1655,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>135</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -1690,18 +1696,18 @@
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>133</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>101</v>
       </c>
@@ -1799,17 +1805,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1842,12 +1848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1891,17 +1897,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -1912,7 +1918,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>105</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>113</v>
       </c>
@@ -1958,12 +1964,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -1972,7 +1978,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -1986,7 +1992,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1999,12 +2005,12 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -2036,7 +2042,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2044,7 +2050,7 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>36</v>
@@ -2053,7 +2059,7 @@
         <v>9.9999999999999991E-22</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -2062,12 +2068,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -2086,15 +2092,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
@@ -2105,12 +2111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>5.7595865315812871</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>54</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>55</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2222,12 +2228,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>59</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>61</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -2273,7 +2279,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>123</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -2340,12 +2346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" t="s">
         <v>131</v>
@@ -2354,7 +2360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>75</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2480,12 +2486,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -2515,18 +2521,18 @@
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>95</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>101</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -2642,12 +2648,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2683,12 +2689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2738,17 +2744,17 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>105</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>112</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -2907,12 +2913,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2957,7 +2963,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2989,12 +2995,12 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -3082,7 +3088,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>36</v>
@@ -3091,7 +3097,7 @@
         <v>9.9999999999999992E-25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>121</v>
@@ -3103,12 +3109,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
@@ -3127,15 +3133,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
@@ -3146,12 +3152,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>-0.26179938779914941</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>0.26179938779914941</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>-1.8429999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>54</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>55</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>-2.3782000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3304,12 +3310,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>57</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>59</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>61</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>66</v>
       </c>
@@ -3360,7 +3366,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>67</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>68</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>69</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>123</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>104</v>
       </c>
@@ -3427,12 +3433,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>73</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>75</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3567,12 +3573,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>93</v>
       </c>
